--- a/DocumentoIntegracion.xlsx
+++ b/DocumentoIntegracion.xlsx
@@ -23,6 +23,353 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+  <si>
+    <t>Nro</t>
+  </si>
+  <si>
+    <t>NombreClase</t>
+  </si>
+  <si>
+    <t>Comprobante</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>En_ComprobanteElectronico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;!--Zero or more repetitions:--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;!--Optional:--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     &lt;/fac:En_ComprobanteDetalleImpuestos&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;/fac:ComprobanteDetalleImpuestos&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:ImpuestoTotal&gt;7.55&lt;/fac:ImpuestoTotal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Item&gt;1&lt;/fac:Item&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Total&gt;41.93&lt;/fac:Total&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:ValorVentaUnitarioIncIgv&gt;49.48&lt;/fac:ValorVentaUnitarioIncIgv&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;/fac:En_ComprobanteDetalle&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/fac:ComprobanteDetalle&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;!--Optional:--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:DescuentoCargo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:En_DescuentoCargo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:CodigoMotivo&gt;50&lt;/fac:CodigoMotivo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Factor&gt;0.01000&lt;/fac:Factor&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Indicador&gt;true&lt;/fac:Indicador&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:MontoBase&gt;72.01&lt;/fac:MontoBase&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:MontoTotal&gt;0.72&lt;/fac:MontoTotal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;/fac:En_DescuentoCargo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/fac:DescuentoCargo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:Emisor&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;!--Optional:--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:CodigoDomicilioFiscal&gt;0001&lt;/fac:CodigoDomicilioFiscal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:CodigoPais&gt;PE&lt;/fac:CodigoPais&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:CodigoUbigeo&gt;010101&lt;/fac:CodigoUbigeo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Contacto&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Correo&gt;emisor@tci.net.pe&lt;/fac:Correo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Nombre&gt;contacto emisor&lt;/fac:Nombre&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Telefono&gt;988632322&lt;/fac:Telefono&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;/fac:Contacto&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Departamento&gt;Lima&lt;/fac:Departamento&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Direccion&gt;Av. los claveles&lt;/fac:Direccion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Distrito&gt;Miraflores&lt;/fac:Distrito&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:NombreComercial&gt;Nombre comercial SAC&lt;/fac:NombreComercial&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:NumeroDocumentoIdentidad&gt;20112811095&lt;/fac:NumeroDocumentoIdentidad&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:PaginaWeb&gt;http://www.google.com.pe&lt;/fac:PaginaWeb&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Provincia&gt;callao&lt;/fac:Provincia&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:RazonSocial&gt;Razon social &lt;/fac:RazonSocial&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:TipoDocumentoIdentidad&gt;6&lt;/fac:TipoDocumentoIdentidad&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Urbanizacion&gt;marquez&lt;/fac:Urbanizacion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/fac:Emisor&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:FechaEmision&gt;2018-10-20&lt;/fac:FechaEmision&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:HoraEmision&gt;20:00:00&lt;/fac:HoraEmision&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             &lt;fac:ImporteTotal&gt;85.70&lt;/fac:ImporteTotal&gt;            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:Moneda&gt;PEN&lt;/fac:Moneda&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:MontoTotales&gt;               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Gravado&gt;                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:GrabadoIGV&gt;                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     &lt;fac:MontoOperaciones&gt;72.01&lt;/fac:MontoOperaciones&gt;                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     &lt;fac:MontoTotalImpuesto&gt;12.97&lt;/fac:MontoTotalImpuesto&gt;                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     &lt;fac:Porcentaje&gt;18.00&lt;/fac:Porcentaje&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;/fac:GrabadoIGV&gt;                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Total&gt;0&lt;/fac:Total&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;/fac:Gravado&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/fac:MontoTotales&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:Numero&gt;1&lt;/fac:Numero&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           &lt;fac:Receptor&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:CodigoDomicilioFiscal&gt;0002&lt;/fac:CodigoDomicilioFiscal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:CodigoUbigeo&gt;020202&lt;/fac:CodigoUbigeo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Correo&gt;receptor@tci.net.pe&lt;/fac:Correo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Nombre&gt;contacto receptor&lt;/fac:Nombre&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  &lt;fac:Telefono&gt;999999999&lt;/fac:Telefono&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Departamento&gt;callao&lt;/fac:Departamento&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Direccion&gt;Av. los claveles 2222&lt;/fac:Direccion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:NombreComercial&gt;Nombre comercial SAC 2222222&lt;/fac:NombreComercial&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:NumeroDocumentoIdentidad&gt;20511111111&lt;/fac:NumeroDocumentoIdentidad&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:PaginaWeb&gt;http://www.google222.com.pe&lt;/fac:PaginaWeb&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Provincia&gt;callao 2&lt;/fac:Provincia&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:RazonSocial&gt;Razon social 2&lt;/fac:RazonSocial&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               &lt;fac:Urbanizacion&gt;marquez 2&lt;/fac:Urbanizacion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/fac:Receptor&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:Serie&gt;F001&lt;/fac:Serie&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TipoOperacion&gt;01&lt;/fac:TipoOperacion&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TotalCargo&gt;0.72&lt;/fac:TotalCargo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TotalDescuento&gt;0&lt;/fac:TotalDescuento&gt;         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TotalImpuesto&gt;12.97&lt;/fac:TotalImpuesto&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TotalPrecioVenta&gt;84.98&lt;/fac:TotalPrecioVenta&gt;            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;fac:TotalValorVenta&gt;72.01&lt;/fac:TotalValorVenta&gt;</t>
+  </si>
+  <si>
+    <t>ComprobanteDetalle</t>
+  </si>
+  <si>
+    <t>En_ComprobanteDetalle</t>
+  </si>
+  <si>
+    <t>Cardinalidad</t>
+  </si>
+  <si>
+    <t>Ruta del XML</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>CodigoTipoPrecio</t>
+  </si>
+  <si>
+    <t>Cantidad de unidades del ítem</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>n(12,10)</t>
+  </si>
+  <si>
+    <t>/Invoice/cac:InvoiceLine/cbc:InvoicedQuantity</t>
+  </si>
+  <si>
+    <t>/Invoice/cac:InvoiceLine/cac:PricingReference/cac:AlternativeConditionPrice/cbc:PriceTypeCode</t>
+  </si>
+  <si>
+    <t>an2</t>
+  </si>
+  <si>
+    <t>Catalogo</t>
+  </si>
+  <si>
+    <t>Catálogo 16</t>
+  </si>
+  <si>
+    <t>ComprobanteDetalleImpuestos</t>
+  </si>
+  <si>
+    <t>En_ComprobanteDetalleImpuestos</t>
+  </si>
+  <si>
+    <t>AfectacionIGV</t>
+  </si>
+  <si>
+    <t>/Invoice/cac:InvoiceLine/cac:TaxTotal/cac:TaxSubtotal/cac:TaxCategory/cbc:TaxExemptionReasonCode</t>
+  </si>
+  <si>
+    <t>Catálogo 07</t>
+  </si>
+  <si>
+    <t>CodigoInternacionalTributo</t>
+  </si>
+  <si>
+    <t>/Invoice/cac:InvoiceLine/cac:TaxTotal/cac:TaxSubtotal/cac:TaxCategory/cac:TaxScheme/cbc:ID</t>
+  </si>
+  <si>
+    <t>an..3</t>
+  </si>
+  <si>
+    <t>Catálogo 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CodigoTributo</t>
+  </si>
+  <si>
+    <t>MontoOperacion</t>
+  </si>
+  <si>
+    <t>MontoTotalImpuesto</t>
+  </si>
+  <si>
+    <t>NombreTributo</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>0..n</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -34,12 +381,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +413,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,14 +703,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="93.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DocumentoIntegracion.xlsx
+++ b/DocumentoIntegracion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>NombreClase</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">            &lt;!--Optional:--&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">            &lt;fac:Emisor&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">               &lt;!--Optional:--&gt;</t>
   </si>
   <si>
@@ -413,19 +410,19 @@
     <t>0…n</t>
   </si>
   <si>
-    <t>CodigoMotivo&gt;50&lt;/fac:CodigoMotivo&gt;</t>
-  </si>
-  <si>
-    <t>Factor&gt;0.01000&lt;/fac:Factor&gt;</t>
-  </si>
-  <si>
-    <t>Indicador&gt;true&lt;/fac:Indicador&gt;</t>
-  </si>
-  <si>
-    <t>MontoBase&gt;72.01&lt;/fac:MontoBase&gt;</t>
-  </si>
-  <si>
-    <t>MontoTotal&gt;0.72&lt;/fac:MontoTotal&gt;</t>
+    <t>CodigoMotivo</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>MontoTotal</t>
+  </si>
+  <si>
+    <t>Emisor</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +494,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -510,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -551,6 +554,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -833,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L130"/>
+  <dimension ref="B1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -901,15 +908,15 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -918,47 +925,47 @@
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
         <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -971,17 +978,17 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -992,25 +999,25 @@
       <c r="D8" s="10"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1019,25 +1026,25 @@
       <c r="D9" s="10"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="13">
         <v>1</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1046,25 +1053,25 @@
       <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="13">
         <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1073,22 +1080,22 @@
       <c r="D11" s="10"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1097,25 +1104,25 @@
       <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="13">
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1124,25 +1131,25 @@
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -1151,7 +1158,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1168,110 +1175,110 @@
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="13">
         <v>1</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="13">
         <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="13">
         <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="F21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="G21" t="s">
-        <v>124</v>
-      </c>
       <c r="H21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1289,17 +1296,17 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -1308,35 +1315,35 @@
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="5"/>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="5"/>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -1347,20 +1354,26 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1372,481 +1385,487 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="F40" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DocumentoIntegracion.xlsx
+++ b/DocumentoIntegracion.xlsx
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DocumentoIntegracion.xlsx
+++ b/DocumentoIntegracion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
   <si>
     <t>NombreClase</t>
   </si>
@@ -840,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L131"/>
+  <dimension ref="B1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,498 +1373,492 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" t="s">
         <v>62</v>
       </c>
     </row>
